--- a/Desarrollo/Data/R2_3_final.xlsx
+++ b/Desarrollo/Data/R2_3_final.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Reválidas-RCA 23014" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="15">
   <si>
     <t>nro_solicitud</t>
   </si>
@@ -65,9 +65,6 @@
   <si>
     <t>S98</t>
   </si>
-  <si>
-    <t>s95</t>
-  </si>
 </sst>
 </file>
 
@@ -109,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -140,6 +137,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,8 +424,8 @@
   <dimension ref="A1:Y999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60:XFD60"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O98" sqref="O98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4929,8 +4929,8 @@
         <v>1</v>
       </c>
       <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
@@ -4978,8 +4978,8 @@
         <v>1</v>
       </c>
       <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
@@ -5027,8 +5027,8 @@
         <v>1</v>
       </c>
       <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H104" s="5" t="b">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H106" s="5" t="b">
         <v>1</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H107" s="5" t="b">
         <v>0</v>
@@ -5943,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H113" s="5" t="b">
         <v>1</v>
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H114" s="5" t="b">
         <v>0</v>
@@ -6041,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H115" s="5" t="b">
         <v>0</v>
